--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fcer2a-Cr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fcer2a-Cr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Fcer2a</t>
   </si>
   <si>
     <t>Cr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +528,1487 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.06135066666666666</v>
+      </c>
+      <c r="H2">
+        <v>0.184052</v>
+      </c>
+      <c r="I2">
+        <v>0.03467334969930309</v>
+      </c>
+      <c r="J2">
+        <v>0.03467334969930309</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0.73425</v>
+      </c>
+      <c r="N2">
+        <v>2.20275</v>
+      </c>
+      <c r="O2">
+        <v>0.3688894597676453</v>
+      </c>
+      <c r="P2">
+        <v>0.3688894597676453</v>
+      </c>
+      <c r="Q2">
+        <v>0.04504672699999999</v>
+      </c>
+      <c r="R2">
+        <v>0.405420543</v>
+      </c>
+      <c r="S2">
+        <v>0.01279063323891056</v>
+      </c>
+      <c r="T2">
+        <v>0.01279063323891057</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>0.06135066666666666</v>
+      </c>
+      <c r="H3">
+        <v>0.184052</v>
+      </c>
+      <c r="I3">
+        <v>0.03467334969930309</v>
+      </c>
+      <c r="J3">
+        <v>0.03467334969930309</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.203534</v>
+      </c>
+      <c r="N3">
+        <v>0.610602</v>
+      </c>
+      <c r="O3">
+        <v>0.1022561080072835</v>
+      </c>
+      <c r="P3">
+        <v>0.1022561080072835</v>
+      </c>
+      <c r="Q3">
+        <v>0.01248694658933333</v>
+      </c>
+      <c r="R3">
+        <v>0.112382519304</v>
+      </c>
+      <c r="S3">
+        <v>0.003545561791826248</v>
+      </c>
+      <c r="T3">
+        <v>0.003545561791826248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.06135066666666666</v>
+      </c>
+      <c r="H4">
+        <v>0.184052</v>
+      </c>
+      <c r="I4">
+        <v>0.03467334969930309</v>
+      </c>
+      <c r="J4">
+        <v>0.03467334969930309</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.8811113333333332</v>
+      </c>
+      <c r="N4">
+        <v>2.643334</v>
+      </c>
+      <c r="O4">
+        <v>0.442673045622721</v>
+      </c>
+      <c r="P4">
+        <v>0.4426730456227211</v>
+      </c>
+      <c r="Q4">
+        <v>0.05405676770755555</v>
+      </c>
+      <c r="R4">
+        <v>0.486510909368</v>
+      </c>
+      <c r="S4">
+        <v>0.01534895731333216</v>
+      </c>
+      <c r="T4">
+        <v>0.01534895731333216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.06135066666666666</v>
+      </c>
+      <c r="H5">
+        <v>0.184052</v>
+      </c>
+      <c r="I5">
+        <v>0.03467334969930309</v>
+      </c>
+      <c r="J5">
+        <v>0.03467334969930309</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.1715383333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.514615</v>
+      </c>
+      <c r="O5">
+        <v>0.08618138660235015</v>
+      </c>
+      <c r="P5">
+        <v>0.08618138660235015</v>
+      </c>
+      <c r="Q5">
+        <v>0.01052399110888889</v>
+      </c>
+      <c r="R5">
+        <v>0.09471591998000001</v>
+      </c>
+      <c r="S5">
+        <v>0.002988197355234121</v>
+      </c>
+      <c r="T5">
+        <v>0.002988197355234121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.2523103333333334</v>
+      </c>
+      <c r="H6">
+        <v>0.756931</v>
+      </c>
+      <c r="I6">
+        <v>0.1425973815076348</v>
+      </c>
+      <c r="J6">
+        <v>0.1425973815076348</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.73425</v>
+      </c>
+      <c r="N6">
+        <v>2.20275</v>
+      </c>
+      <c r="O6">
+        <v>0.3688894597676453</v>
+      </c>
+      <c r="P6">
+        <v>0.3688894597676453</v>
+      </c>
+      <c r="Q6">
+        <v>0.18525886225</v>
+      </c>
+      <c r="R6">
+        <v>1.66732976025</v>
+      </c>
+      <c r="S6">
+        <v>0.0526026710286322</v>
+      </c>
+      <c r="T6">
+        <v>0.0526026710286322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.2523103333333334</v>
+      </c>
+      <c r="H7">
+        <v>0.756931</v>
+      </c>
+      <c r="I7">
+        <v>0.1425973815076348</v>
+      </c>
+      <c r="J7">
+        <v>0.1425973815076348</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.203534</v>
+      </c>
+      <c r="N7">
+        <v>0.610602</v>
+      </c>
+      <c r="O7">
+        <v>0.1022561080072835</v>
+      </c>
+      <c r="P7">
+        <v>0.1022561080072835</v>
+      </c>
+      <c r="Q7">
+        <v>0.05135373138466667</v>
+      </c>
+      <c r="R7">
+        <v>0.462183582462</v>
+      </c>
+      <c r="S7">
+        <v>0.01458145324500051</v>
+      </c>
+      <c r="T7">
+        <v>0.01458145324500051</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.2523103333333334</v>
+      </c>
+      <c r="H8">
+        <v>0.756931</v>
+      </c>
+      <c r="I8">
+        <v>0.1425973815076348</v>
+      </c>
+      <c r="J8">
+        <v>0.1425973815076348</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.8811113333333332</v>
+      </c>
+      <c r="N8">
+        <v>2.643334</v>
+      </c>
+      <c r="O8">
+        <v>0.442673045622721</v>
+      </c>
+      <c r="P8">
+        <v>0.4426730456227211</v>
+      </c>
+      <c r="Q8">
+        <v>0.2223134942171111</v>
+      </c>
+      <c r="R8">
+        <v>2.000821447954</v>
+      </c>
+      <c r="S8">
+        <v>0.06312401716980975</v>
+      </c>
+      <c r="T8">
+        <v>0.06312401716980977</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.2523103333333334</v>
+      </c>
+      <c r="H9">
+        <v>0.756931</v>
+      </c>
+      <c r="I9">
+        <v>0.1425973815076348</v>
+      </c>
+      <c r="J9">
+        <v>0.1425973815076348</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.1715383333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.514615</v>
+      </c>
+      <c r="O9">
+        <v>0.08618138660235015</v>
+      </c>
+      <c r="P9">
+        <v>0.08618138660235015</v>
+      </c>
+      <c r="Q9">
+        <v>0.04328089406277778</v>
+      </c>
+      <c r="R9">
+        <v>0.3895280465650001</v>
+      </c>
+      <c r="S9">
+        <v>0.01228924006419229</v>
+      </c>
+      <c r="T9">
+        <v>0.01228924006419229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.09059099999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.271773</v>
+      </c>
+      <c r="I10">
+        <v>0.05119901043090376</v>
+      </c>
+      <c r="J10">
+        <v>0.05119901043090377</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.73425</v>
+      </c>
+      <c r="N10">
+        <v>2.20275</v>
+      </c>
+      <c r="O10">
+        <v>0.3688894597676453</v>
+      </c>
+      <c r="P10">
+        <v>0.3688894597676453</v>
+      </c>
+      <c r="Q10">
+        <v>0.06651644174999999</v>
+      </c>
+      <c r="R10">
+        <v>0.5986479757499999</v>
+      </c>
+      <c r="S10">
+        <v>0.01888677529849412</v>
+      </c>
+      <c r="T10">
+        <v>0.01888677529849413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.09059099999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.271773</v>
+      </c>
+      <c r="I11">
+        <v>0.05119901043090376</v>
+      </c>
+      <c r="J11">
+        <v>0.05119901043090377</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.203534</v>
+      </c>
+      <c r="N11">
+        <v>0.610602</v>
+      </c>
+      <c r="O11">
+        <v>0.1022561080072835</v>
+      </c>
+      <c r="P11">
+        <v>0.1022561080072835</v>
+      </c>
+      <c r="Q11">
+        <v>0.018438348594</v>
+      </c>
+      <c r="R11">
+        <v>0.165945137346</v>
+      </c>
+      <c r="S11">
+        <v>0.00523541154048853</v>
+      </c>
+      <c r="T11">
+        <v>0.00523541154048853</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.09059099999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.271773</v>
+      </c>
+      <c r="I12">
+        <v>0.05119901043090376</v>
+      </c>
+      <c r="J12">
+        <v>0.05119901043090377</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.8811113333333332</v>
+      </c>
+      <c r="N12">
+        <v>2.643334</v>
+      </c>
+      <c r="O12">
+        <v>0.442673045622721</v>
+      </c>
+      <c r="P12">
+        <v>0.4426730456227211</v>
+      </c>
+      <c r="Q12">
+        <v>0.07982075679799998</v>
+      </c>
+      <c r="R12">
+        <v>0.7183868111819999</v>
+      </c>
+      <c r="S12">
+        <v>0.02266442188031763</v>
+      </c>
+      <c r="T12">
+        <v>0.02266442188031764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.09059099999999999</v>
+      </c>
+      <c r="H13">
+        <v>0.271773</v>
+      </c>
+      <c r="I13">
+        <v>0.05119901043090376</v>
+      </c>
+      <c r="J13">
+        <v>0.05119901043090377</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.1715383333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.514615</v>
+      </c>
+      <c r="O13">
+        <v>0.08618138660235015</v>
+      </c>
+      <c r="P13">
+        <v>0.08618138660235015</v>
+      </c>
+      <c r="Q13">
+        <v>0.015539829155</v>
+      </c>
+      <c r="R13">
+        <v>0.139858462395</v>
+      </c>
+      <c r="S13">
+        <v>0.004412401711603475</v>
+      </c>
+      <c r="T13">
+        <v>0.004412401711603476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.586761046059414</v>
-      </c>
-      <c r="H2">
-        <v>0.586761046059414</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0.646782384266252</v>
-      </c>
-      <c r="N2">
-        <v>0.646782384266252</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>0.3795067083648679</v>
-      </c>
-      <c r="R2">
-        <v>0.3795067083648679</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.2625306666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.787592</v>
+      </c>
+      <c r="I14">
+        <v>0.1483735728836064</v>
+      </c>
+      <c r="J14">
+        <v>0.1483735728836064</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.73425</v>
+      </c>
+      <c r="N14">
+        <v>2.20275</v>
+      </c>
+      <c r="O14">
+        <v>0.3688894597676453</v>
+      </c>
+      <c r="P14">
+        <v>0.3688894597676453</v>
+      </c>
+      <c r="Q14">
+        <v>0.192763142</v>
+      </c>
+      <c r="R14">
+        <v>1.734868278</v>
+      </c>
+      <c r="S14">
+        <v>0.05473344714482889</v>
+      </c>
+      <c r="T14">
+        <v>0.05473344714482891</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.2625306666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.787592</v>
+      </c>
+      <c r="I15">
+        <v>0.1483735728836064</v>
+      </c>
+      <c r="J15">
+        <v>0.1483735728836064</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.203534</v>
+      </c>
+      <c r="N15">
+        <v>0.610602</v>
+      </c>
+      <c r="O15">
+        <v>0.1022561080072835</v>
+      </c>
+      <c r="P15">
+        <v>0.1022561080072835</v>
+      </c>
+      <c r="Q15">
+        <v>0.05343391670933333</v>
+      </c>
+      <c r="R15">
+        <v>0.4809052503839999</v>
+      </c>
+      <c r="S15">
+        <v>0.0151721040942126</v>
+      </c>
+      <c r="T15">
+        <v>0.01517210409421261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.2625306666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.787592</v>
+      </c>
+      <c r="I16">
+        <v>0.1483735728836064</v>
+      </c>
+      <c r="J16">
+        <v>0.1483735728836064</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.8811113333333332</v>
+      </c>
+      <c r="N16">
+        <v>2.643334</v>
+      </c>
+      <c r="O16">
+        <v>0.442673045622721</v>
+      </c>
+      <c r="P16">
+        <v>0.4426730456227211</v>
+      </c>
+      <c r="Q16">
+        <v>0.2313187457475555</v>
+      </c>
+      <c r="R16">
+        <v>2.081868711728</v>
+      </c>
+      <c r="S16">
+        <v>0.0656809813983108</v>
+      </c>
+      <c r="T16">
+        <v>0.06568098139831083</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.2625306666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.787592</v>
+      </c>
+      <c r="I17">
+        <v>0.1483735728836064</v>
+      </c>
+      <c r="J17">
+        <v>0.1483735728836064</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1715383333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.514615</v>
+      </c>
+      <c r="O17">
+        <v>0.08618138660235015</v>
+      </c>
+      <c r="P17">
+        <v>0.08618138660235015</v>
+      </c>
+      <c r="Q17">
+        <v>0.04503407300888889</v>
+      </c>
+      <c r="R17">
+        <v>0.40530665708</v>
+      </c>
+      <c r="S17">
+        <v>0.01278704024625406</v>
+      </c>
+      <c r="T17">
+        <v>0.01278704024625406</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.013819666666667</v>
+      </c>
+      <c r="H18">
+        <v>3.041459</v>
+      </c>
+      <c r="I18">
+        <v>0.5729770472643203</v>
+      </c>
+      <c r="J18">
+        <v>0.5729770472643203</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.73425</v>
+      </c>
+      <c r="N18">
+        <v>2.20275</v>
+      </c>
+      <c r="O18">
+        <v>0.3688894597676453</v>
+      </c>
+      <c r="P18">
+        <v>0.3688894597676453</v>
+      </c>
+      <c r="Q18">
+        <v>0.7443970902499999</v>
+      </c>
+      <c r="R18">
+        <v>6.69957381225</v>
+      </c>
+      <c r="S18">
+        <v>0.2113651934245957</v>
+      </c>
+      <c r="T18">
+        <v>0.2113651934245957</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.013819666666667</v>
+      </c>
+      <c r="H19">
+        <v>3.041459</v>
+      </c>
+      <c r="I19">
+        <v>0.5729770472643203</v>
+      </c>
+      <c r="J19">
+        <v>0.5729770472643203</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.203534</v>
+      </c>
+      <c r="N19">
+        <v>0.610602</v>
+      </c>
+      <c r="O19">
+        <v>0.1022561080072835</v>
+      </c>
+      <c r="P19">
+        <v>0.1022561080072835</v>
+      </c>
+      <c r="Q19">
+        <v>0.2063467720353333</v>
+      </c>
+      <c r="R19">
+        <v>1.857120948318</v>
+      </c>
+      <c r="S19">
+        <v>0.05859040283075472</v>
+      </c>
+      <c r="T19">
+        <v>0.05859040283075472</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.013819666666667</v>
+      </c>
+      <c r="H20">
+        <v>3.041459</v>
+      </c>
+      <c r="I20">
+        <v>0.5729770472643203</v>
+      </c>
+      <c r="J20">
+        <v>0.5729770472643203</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.8811113333333332</v>
+      </c>
+      <c r="N20">
+        <v>2.643334</v>
+      </c>
+      <c r="O20">
+        <v>0.442673045622721</v>
+      </c>
+      <c r="P20">
+        <v>0.4426730456227211</v>
+      </c>
+      <c r="Q20">
+        <v>0.8932879982562221</v>
+      </c>
+      <c r="R20">
+        <v>8.039591984305998</v>
+      </c>
+      <c r="S20">
+        <v>0.2536414945844104</v>
+      </c>
+      <c r="T20">
+        <v>0.2536414945844105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.013819666666667</v>
+      </c>
+      <c r="H21">
+        <v>3.041459</v>
+      </c>
+      <c r="I21">
+        <v>0.5729770472643203</v>
+      </c>
+      <c r="J21">
+        <v>0.5729770472643203</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.1715383333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.514615</v>
+      </c>
+      <c r="O21">
+        <v>0.08618138660235015</v>
+      </c>
+      <c r="P21">
+        <v>0.08618138660235015</v>
+      </c>
+      <c r="Q21">
+        <v>0.1739089359205556</v>
+      </c>
+      <c r="R21">
+        <v>1.565180423285</v>
+      </c>
+      <c r="S21">
+        <v>0.04937995642455945</v>
+      </c>
+      <c r="T21">
+        <v>0.04937995642455945</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.08878733333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.266362</v>
+      </c>
+      <c r="I22">
+        <v>0.05017963821423169</v>
+      </c>
+      <c r="J22">
+        <v>0.05017963821423169</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.73425</v>
+      </c>
+      <c r="N22">
+        <v>2.20275</v>
+      </c>
+      <c r="O22">
+        <v>0.3688894597676453</v>
+      </c>
+      <c r="P22">
+        <v>0.3688894597676453</v>
+      </c>
+      <c r="Q22">
+        <v>0.06519209949999999</v>
+      </c>
+      <c r="R22">
+        <v>0.5867288955</v>
+      </c>
+      <c r="S22">
+        <v>0.01851073963218381</v>
+      </c>
+      <c r="T22">
+        <v>0.01851073963218382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.08878733333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.266362</v>
+      </c>
+      <c r="I23">
+        <v>0.05017963821423169</v>
+      </c>
+      <c r="J23">
+        <v>0.05017963821423169</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.203534</v>
+      </c>
+      <c r="N23">
+        <v>0.610602</v>
+      </c>
+      <c r="O23">
+        <v>0.1022561080072835</v>
+      </c>
+      <c r="P23">
+        <v>0.1022561080072835</v>
+      </c>
+      <c r="Q23">
+        <v>0.01807124110266667</v>
+      </c>
+      <c r="R23">
+        <v>0.162641169924</v>
+      </c>
+      <c r="S23">
+        <v>0.005131174505000886</v>
+      </c>
+      <c r="T23">
+        <v>0.005131174505000886</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.08878733333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.266362</v>
+      </c>
+      <c r="I24">
+        <v>0.05017963821423169</v>
+      </c>
+      <c r="J24">
+        <v>0.05017963821423169</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.8811113333333332</v>
+      </c>
+      <c r="N24">
+        <v>2.643334</v>
+      </c>
+      <c r="O24">
+        <v>0.442673045622721</v>
+      </c>
+      <c r="P24">
+        <v>0.4426730456227211</v>
+      </c>
+      <c r="Q24">
+        <v>0.07823152565644444</v>
+      </c>
+      <c r="R24">
+        <v>0.7040837309079999</v>
+      </c>
+      <c r="S24">
+        <v>0.02221317327654022</v>
+      </c>
+      <c r="T24">
+        <v>0.02221317327654022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.08878733333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.266362</v>
+      </c>
+      <c r="I25">
+        <v>0.05017963821423169</v>
+      </c>
+      <c r="J25">
+        <v>0.05017963821423169</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.1715383333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.514615</v>
+      </c>
+      <c r="O25">
+        <v>0.08618138660235015</v>
+      </c>
+      <c r="P25">
+        <v>0.08618138660235015</v>
+      </c>
+      <c r="Q25">
+        <v>0.01523043118111111</v>
+      </c>
+      <c r="R25">
+        <v>0.13707388063</v>
+      </c>
+      <c r="S25">
+        <v>0.004324550800506764</v>
+      </c>
+      <c r="T25">
+        <v>0.004324550800506764</v>
       </c>
     </row>
   </sheetData>
